--- a/DSS-Week05/Data/DSS-Unit05-File01.xlsx
+++ b/DSS-Week05/Data/DSS-Unit05-File01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igaribay/Documents/0.iFACULTY/2.GitHub-Local/DSSwithPython/DSS-Week05/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD34CE9-6651-9646-B891-90EC0D721C54}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27B1442-3B31-7844-B3E2-324695CC70D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36920" yWindow="500" windowWidth="31200" windowHeight="22480" activeTab="4" xr2:uid="{88CA5D42-C99C-E642-BB54-64BB7C57E7F1}"/>
+    <workbookView xWindow="-35660" yWindow="480" windowWidth="31200" windowHeight="19120" activeTab="3" xr2:uid="{88CA5D42-C99C-E642-BB54-64BB7C57E7F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Single Tables" sheetId="2" r:id="rId6"/>
     <sheet name="Muti Index Table" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1538,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4E4489-1D58-EA48-9E45-352B4063EA8E}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1842,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A43070-EA4A-EA46-B2E0-06C6C8298FBD}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
